--- a/outcome/appendix/data/0_impact/AIDS.xlsx
+++ b/outcome/appendix/data/0_impact/AIDS.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3741.38235203816</v>
+        <v>3727.48315557518</v>
       </c>
       <c r="C2" t="n">
         <v>2152.7703504142</v>
@@ -418,10 +418,10 @@
         <v>1699.67084515927</v>
       </c>
       <c r="E2" t="n">
-        <v>5080.16331692634</v>
+        <v>5042.95245506999</v>
       </c>
       <c r="F2" t="n">
-        <v>5423.48117750657</v>
+        <v>5396.36436238815</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,7 +435,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3591.90389815518</v>
+        <v>3573.79440212258</v>
       </c>
       <c r="C3" t="n">
         <v>1816.93322043667</v>
@@ -444,10 +444,10 @@
         <v>1347.12299859106</v>
       </c>
       <c r="E3" t="n">
-        <v>4907.45798440174</v>
+        <v>4851.24938086359</v>
       </c>
       <c r="F3" t="n">
-        <v>5186.2982603966</v>
+        <v>5121.70294885831</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5784.71079720654</v>
+        <v>5808.38274151574</v>
       </c>
       <c r="C4" t="n">
         <v>3083.94672307575</v>
@@ -470,7 +470,7 @@
         <v>2136.44794403675</v>
       </c>
       <c r="E4" t="n">
-        <v>6926.52156039293</v>
+        <v>7033.34597358351</v>
       </c>
       <c r="F4" t="n">
         <v>7611.18110137463</v>
@@ -487,7 +487,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5700.3830581106</v>
+        <v>5718.66644245875</v>
       </c>
       <c r="C5" t="n">
         <v>2854.05074610463</v>
@@ -496,10 +496,10 @@
         <v>1833.87960167004</v>
       </c>
       <c r="E5" t="n">
-        <v>7346.43519228847</v>
+        <v>7429.71564282265</v>
       </c>
       <c r="F5" t="n">
-        <v>7728.52022195684</v>
+        <v>7759.93387887903</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,7 +513,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6095.20049406708</v>
+        <v>6108.80592301542</v>
       </c>
       <c r="C6" t="n">
         <v>2993.80831611631</v>
@@ -539,7 +539,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6536.76991678229</v>
+        <v>6540.86290974177</v>
       </c>
       <c r="C7" t="n">
         <v>3219.60632862928</v>
@@ -565,7 +565,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6473.76434601774</v>
+        <v>6469.01438457587</v>
       </c>
       <c r="C8" t="n">
         <v>3052.57814199964</v>
@@ -591,7 +591,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6390.36660985203</v>
+        <v>6390.46164883723</v>
       </c>
       <c r="C9" t="n">
         <v>2866.96637448878</v>
@@ -617,7 +617,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6588.51792868966</v>
+        <v>6587.89128123272</v>
       </c>
       <c r="C10" t="n">
         <v>2839.65018335875</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6241.54558361206</v>
+        <v>6240.09888697617</v>
       </c>
       <c r="C11" t="n">
         <v>2479.9727216404</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7265.63152656453</v>
+        <v>7253.72361056906</v>
       </c>
       <c r="C12" t="n">
         <v>2771.75552555663</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7202.80275258137</v>
+        <v>7194.07247863375</v>
       </c>
       <c r="C13" t="n">
         <v>2483.39926663096</v>
@@ -721,7 +721,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4127.77497229559</v>
+        <v>4114.79569043803</v>
       </c>
       <c r="C14" t="n">
         <v>896.156751843729</v>
@@ -730,10 +730,10 @@
         <v>-241.478556741608</v>
       </c>
       <c r="E14" t="n">
-        <v>6244.92821836939</v>
+        <v>6271.978675709</v>
       </c>
       <c r="F14" t="n">
-        <v>6637.30045328728</v>
+        <v>6672.00213892859</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,7 +747,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3923.09809267422</v>
+        <v>3898.73590152749</v>
       </c>
       <c r="C15" t="n">
         <v>742.111867515849</v>
@@ -756,10 +756,10 @@
         <v>-314.044841481439</v>
       </c>
       <c r="E15" t="n">
-        <v>5881.45383507178</v>
+        <v>5805.87989919664</v>
       </c>
       <c r="F15" t="n">
-        <v>6331.46690931515</v>
+        <v>6343.24426520743</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,7 +773,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6003.33527147843</v>
+        <v>6025.50784182808</v>
       </c>
       <c r="C16" t="n">
         <v>1224.9479493566</v>
@@ -799,7 +799,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5965.36302717487</v>
+        <v>5978.80030481732</v>
       </c>
       <c r="C17" t="n">
         <v>1092.96001382115</v>
@@ -825,7 +825,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6321.97215416453</v>
+        <v>6331.69468745316</v>
       </c>
       <c r="C18" t="n">
         <v>1095.21608682192</v>
@@ -851,7 +851,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6738.63535499282</v>
+        <v>6735.61968703024</v>
       </c>
       <c r="C19" t="n">
         <v>1113.38880729495</v>
@@ -877,7 +877,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6693.88756141001</v>
+        <v>6681.95280581951</v>
       </c>
       <c r="C20" t="n">
         <v>985.328114371669</v>
@@ -903,7 +903,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6603.71515266624</v>
+        <v>6591.67786059789</v>
       </c>
       <c r="C21" t="n">
         <v>850.084688382258</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6782.35868827683</v>
+        <v>6769.07828437614</v>
       </c>
       <c r="C22" t="n">
         <v>757.229394061531</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6455.65799777276</v>
+        <v>6442.6060067078</v>
       </c>
       <c r="C23" t="n">
         <v>577.361500826178</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7398.01207668981</v>
+        <v>7380.5749622845</v>
       </c>
       <c r="C24" t="n">
         <v>538.798317481166</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7306.05750664988</v>
+        <v>7288.08177950548</v>
       </c>
       <c r="C25" t="n">
         <v>374.2029917776</v>
@@ -1033,7 +1033,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4463.15678925247</v>
+        <v>4468.98947235823</v>
       </c>
       <c r="C26" t="n">
         <v>-24.6977370109635</v>
@@ -1042,7 +1042,7 @@
         <v>-1669.36318507179</v>
       </c>
       <c r="E26" t="n">
-        <v>7229.82398158905</v>
+        <v>7267.42857002216</v>
       </c>
       <c r="F26" t="n">
         <v>7833.66168463733</v>
@@ -1059,7 +1059,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4258.67672657495</v>
+        <v>4246.4644686624</v>
       </c>
       <c r="C27" t="n">
         <v>-78.3646268885336</v>
@@ -1068,10 +1068,10 @@
         <v>-1586.43654818386</v>
       </c>
       <c r="E27" t="n">
-        <v>6829.91511639652</v>
+        <v>6838.97985693021</v>
       </c>
       <c r="F27" t="n">
-        <v>7265.76552421202</v>
+        <v>7287.03687605347</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,7 +1085,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6181.98862236397</v>
+        <v>6187.10953191403</v>
       </c>
       <c r="C28" t="n">
         <v>-242.012669863102</v>
@@ -1111,7 +1111,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6095.05657801016</v>
+        <v>6094.06644349506</v>
       </c>
       <c r="C29" t="n">
         <v>-335.909664650401</v>
@@ -1137,7 +1137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6474.58690465958</v>
+        <v>6472.16055954591</v>
       </c>
       <c r="C30" t="n">
         <v>-482.301662469501</v>
@@ -1163,7 +1163,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6871.87727160868</v>
+        <v>6860.85737719278</v>
       </c>
       <c r="C31" t="n">
         <v>-673.220791722901</v>
@@ -1189,7 +1189,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6803.38051604783</v>
+        <v>6786.70624261154</v>
       </c>
       <c r="C32" t="n">
         <v>-800.452819238947</v>
@@ -1215,7 +1215,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6736.18310382962</v>
+        <v>6717.52921359881</v>
       </c>
       <c r="C33" t="n">
         <v>-920.624071711484</v>
@@ -1241,7 +1241,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6923.71173568031</v>
+        <v>6903.93097811502</v>
       </c>
       <c r="C34" t="n">
         <v>-1097.74598985594</v>
@@ -1267,7 +1267,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6598.26392975759</v>
+        <v>6578.18460643654</v>
       </c>
       <c r="C35" t="n">
         <v>-1139.789991749</v>
@@ -1293,7 +1293,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>7545.5601493144</v>
+        <v>7524.50173548355</v>
       </c>
       <c r="C36" t="n">
         <v>-1500.60920362841</v>
@@ -1319,7 +1319,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>7468.4140556666</v>
+        <v>7446.97140633772</v>
       </c>
       <c r="C37" t="n">
         <v>-1573.19248392396</v>
@@ -1345,7 +1345,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>4759.57242996235</v>
+        <v>4773.70891669114</v>
       </c>
       <c r="C38" t="n">
         <v>-899.14589250065</v>
@@ -1354,7 +1354,7 @@
         <v>-3026.51276834837</v>
       </c>
       <c r="E38" t="n">
-        <v>7708.31682778834</v>
+        <v>7713.48785739193</v>
       </c>
       <c r="F38" t="n">
         <v>9265.60436222841</v>
@@ -1371,7 +1371,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4590.269230501</v>
+        <v>4601.14828576017</v>
       </c>
       <c r="C39" t="n">
         <v>-863.593036594435</v>
@@ -1380,7 +1380,7 @@
         <v>-2805.13427860866</v>
       </c>
       <c r="E39" t="n">
-        <v>7360.90072573735</v>
+        <v>7344.37013358573</v>
       </c>
       <c r="F39" t="n">
         <v>8413.2656276954</v>
